--- a/docs/Gantt_1_Semester.xlsx
+++ b/docs/Gantt_1_Semester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\transitwise\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\transitwise\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEE8AC1E-D646-4492-9869-9FF39B2BBD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B70466-1734-4E23-A1F4-9DAC5895D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -168,6 +168,51 @@
   </si>
   <si>
     <t>TransitWise</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Aidan Callan</t>
+  </si>
+  <si>
+    <t>User Data Tables</t>
+  </si>
+  <si>
+    <t>Lucas Pfeifer + Aidan</t>
+  </si>
+  <si>
+    <t>Flight Data Collection/Input</t>
+  </si>
+  <si>
+    <t>Jonathan + Steven</t>
+  </si>
+  <si>
+    <t>Basic Website template</t>
+  </si>
+  <si>
+    <t>David + Uriel</t>
+  </si>
+  <si>
+    <t>Finacial Transaction Simulator</t>
+  </si>
+  <si>
+    <t>Steven+Jonathan</t>
+  </si>
+  <si>
+    <t>Employee Users</t>
+  </si>
+  <si>
+    <t>Lucas + Aidan</t>
+  </si>
+  <si>
+    <t>User acount and log in pages</t>
+  </si>
+  <si>
+    <t>Learn Javascript for sql</t>
   </si>
 </sst>
 </file>
@@ -696,27 +741,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -731,9 +755,14 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,6 +772,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,22 +1109,22 @@
   </sheetPr>
   <dimension ref="A1:BZ37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="9" max="78" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="78" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1159,40 +1204,40 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -1241,7 +1286,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1321,13 +1366,13 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="57"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="58" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="59"/>
@@ -1343,7 +1388,7 @@
       <c r="M4" s="57"/>
       <c r="N4" s="57"/>
       <c r="O4" s="57"/>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="60" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="59"/>
@@ -1409,13 +1454,13 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="57"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="59"/>
@@ -1431,7 +1476,7 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="57"/>
-      <c r="P5" s="60">
+      <c r="P5" s="71">
         <v>45174</v>
       </c>
       <c r="Q5" s="59"/>
@@ -1497,7 +1542,7 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="48" t="s">
         <v>26</v>
@@ -1581,7 +1626,7 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="48" t="s">
         <v>27</v>
@@ -1665,209 +1710,209 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="51"/>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="51"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
-      <c r="AL8" s="51"/>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="51"/>
-      <c r="AO8" s="51"/>
-      <c r="AP8" s="51"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="51"/>
-      <c r="AY8" s="51"/>
-      <c r="AZ8" s="51"/>
-      <c r="BA8" s="51"/>
-      <c r="BB8" s="50"/>
-      <c r="BC8" s="51"/>
-      <c r="BD8" s="51"/>
-      <c r="BE8" s="51"/>
-      <c r="BF8" s="51"/>
-      <c r="BG8" s="51"/>
-      <c r="BH8" s="51"/>
-      <c r="BI8" s="51"/>
-      <c r="BJ8" s="51"/>
-      <c r="BK8" s="51"/>
-      <c r="BL8" s="51"/>
-      <c r="BM8" s="51"/>
-      <c r="BN8" s="51"/>
-      <c r="BO8" s="51"/>
-      <c r="BP8" s="51"/>
-      <c r="BQ8" s="51"/>
-      <c r="BR8" s="51"/>
-      <c r="BS8" s="51"/>
-      <c r="BT8" s="51"/>
-      <c r="BU8" s="51"/>
-      <c r="BV8" s="51"/>
-      <c r="BW8" s="51"/>
-      <c r="BX8" s="51"/>
-      <c r="BY8" s="51"/>
-      <c r="BZ8" s="52"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="64"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="64"/>
+      <c r="BG8" s="64"/>
+      <c r="BH8" s="64"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="64"/>
+      <c r="BL8" s="64"/>
+      <c r="BM8" s="64"/>
+      <c r="BN8" s="64"/>
+      <c r="BO8" s="64"/>
+      <c r="BP8" s="64"/>
+      <c r="BQ8" s="64"/>
+      <c r="BR8" s="64"/>
+      <c r="BS8" s="64"/>
+      <c r="BT8" s="64"/>
+      <c r="BU8" s="64"/>
+      <c r="BV8" s="64"/>
+      <c r="BW8" s="64"/>
+      <c r="BX8" s="64"/>
+      <c r="BY8" s="64"/>
+      <c r="BZ8" s="69"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="53" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="53" t="s">
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="53" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="53" t="s">
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="53" t="s">
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="53" t="s">
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="53" t="s">
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="53" t="s">
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="68"/>
+      <c r="AR9" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="53" t="s">
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="55"/>
-      <c r="BB9" s="53" t="s">
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="55"/>
-      <c r="BG9" s="53" t="s">
+      <c r="BC9" s="67"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="68"/>
+      <c r="BG9" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="55"/>
-      <c r="BL9" s="53" t="s">
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="67"/>
+      <c r="BJ9" s="67"/>
+      <c r="BK9" s="68"/>
+      <c r="BL9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="BM9" s="54"/>
-      <c r="BN9" s="54"/>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="55"/>
-      <c r="BQ9" s="53" t="s">
+      <c r="BM9" s="67"/>
+      <c r="BN9" s="67"/>
+      <c r="BO9" s="67"/>
+      <c r="BP9" s="68"/>
+      <c r="BQ9" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="BR9" s="54"/>
-      <c r="BS9" s="54"/>
-      <c r="BT9" s="54"/>
-      <c r="BU9" s="55"/>
-      <c r="BV9" s="53" t="s">
+      <c r="BR9" s="67"/>
+      <c r="BS9" s="67"/>
+      <c r="BT9" s="67"/>
+      <c r="BU9" s="68"/>
+      <c r="BV9" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="BW9" s="54"/>
-      <c r="BX9" s="54"/>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="55"/>
+      <c r="BW9" s="67"/>
+      <c r="BX9" s="67"/>
+      <c r="BY9" s="67"/>
+      <c r="BZ9" s="68"/>
     </row>
-    <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="26">
         <v>1</v>
@@ -1951,7 +1996,7 @@
       <c r="BY10" s="29"/>
       <c r="BZ10" s="29"/>
     </row>
-    <row r="11" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="33">
         <v>1.1000000000000001</v>
@@ -1959,14 +2004,22 @@
       <c r="C11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="D11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="35">
+        <v>45173</v>
+      </c>
+      <c r="F11" s="35">
+        <v>45180</v>
+      </c>
       <c r="G11" s="36">
-        <f t="shared" ref="G11:G17" si="0">DAYS360(E11,F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="37"/>
+        <f>DAYS360(E11,F11)</f>
+        <v>7</v>
+      </c>
+      <c r="H11" s="37">
+        <v>1</v>
+      </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -2038,7 +2091,7 @@
       <c r="BY11" s="38"/>
       <c r="BZ11" s="38"/>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="33" t="s">
         <v>13</v>
@@ -2046,14 +2099,22 @@
       <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="35">
+        <v>45173</v>
+      </c>
+      <c r="F12" s="35">
+        <v>45180</v>
+      </c>
       <c r="G12" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="37"/>
+        <f t="shared" ref="G12:G37" si="0">DAYS360(E12,F12)</f>
+        <v>7</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1</v>
+      </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -2125,7 +2186,7 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="33">
         <v>1.2</v>
@@ -2133,14 +2194,22 @@
       <c r="C13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="35">
+        <v>45173</v>
+      </c>
+      <c r="F13" s="35">
+        <v>45180</v>
+      </c>
       <c r="G13" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1</v>
+      </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -2212,7 +2281,7 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.3</v>
@@ -2220,14 +2289,22 @@
       <c r="C14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="35">
+        <v>45173</v>
+      </c>
+      <c r="F14" s="35">
+        <v>45180</v>
+      </c>
       <c r="G14" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="37">
+        <v>1</v>
+      </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
@@ -2299,20 +2376,30 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.4</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="C15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="35">
+        <v>45173</v>
+      </c>
+      <c r="F15" s="35">
+        <v>45180</v>
+      </c>
       <c r="G15" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1</v>
+      </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -2384,18 +2471,24 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.5</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
+      <c r="C16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="35">
+        <v>45187</v>
+      </c>
       <c r="F16" s="35"/>
       <c r="G16" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-44538</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
@@ -2469,7 +2562,7 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.6</v>
@@ -2554,7 +2647,7 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="26">
         <v>2</v>
@@ -2565,7 +2658,10 @@
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
       <c r="J18" s="30"/>
@@ -2638,17 +2734,26 @@
       <c r="BY18" s="29"/>
       <c r="BZ18" s="29"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>2.1</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="C19" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="35">
+        <v>45188</v>
+      </c>
+      <c r="F19" s="35">
+        <v>45195</v>
+      </c>
       <c r="G19" s="36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="42"/>
@@ -2722,18 +2827,26 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="35">
+        <v>45188</v>
+      </c>
+      <c r="F20" s="35">
+        <v>45202</v>
+      </c>
       <c r="G20" s="36">
-        <f t="shared" ref="G20:G21" si="1">DAYS360(E20,F20)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="42"/>
@@ -2807,7 +2920,7 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="33">
         <v>2.2999999999999998</v>
@@ -2817,7 +2930,7 @@
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="47"/>
@@ -2892,7 +3005,7 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
         <v>15</v>
@@ -2902,6 +3015,7 @@
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="47"/>
@@ -2976,7 +3090,7 @@
       <c r="BY22" s="38"/>
       <c r="BZ22" s="38"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.4</v>
@@ -2986,7 +3100,7 @@
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="36">
-        <f t="shared" ref="G23:G24" si="2">DAYS360(E23,F23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="47"/>
@@ -3061,7 +3175,7 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.5</v>
@@ -3071,7 +3185,7 @@
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="47"/>
@@ -3146,7 +3260,7 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.6</v>
@@ -3156,6 +3270,7 @@
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="47"/>
@@ -3230,7 +3345,7 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="33">
         <v>2.7</v>
@@ -3240,7 +3355,7 @@
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="36">
-        <f t="shared" ref="G26:G27" si="3">DAYS360(E26,F26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="47"/>
@@ -3315,7 +3430,7 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.8</v>
@@ -3325,7 +3440,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="47"/>
@@ -3400,7 +3515,7 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.9</v>
@@ -3410,6 +3525,7 @@
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="47"/>
@@ -3484,7 +3600,7 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="46">
         <v>2.1</v>
@@ -3494,7 +3610,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="36">
-        <f>DAYS360(E29,F29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="47"/>
@@ -3569,7 +3685,7 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="46">
         <v>2.11</v>
@@ -3579,6 +3695,7 @@
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="47"/>
@@ -3653,7 +3770,7 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="26">
         <v>3</v>
@@ -3664,7 +3781,10 @@
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H31" s="28"/>
       <c r="I31" s="29"/>
       <c r="J31" s="30"/>
@@ -3737,20 +3857,30 @@
       <c r="BY31" s="29"/>
       <c r="BZ31" s="29"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>3.1</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="C32" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="35">
+        <v>45188</v>
+      </c>
+      <c r="F32" s="35">
+        <v>45188</v>
+      </c>
       <c r="G32" s="36">
-        <f>DAYS360(E32,F32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="37"/>
+      <c r="H32" s="37">
+        <v>1</v>
+      </c>
       <c r="I32" s="42"/>
       <c r="J32" s="43"/>
       <c r="K32" s="38"/>
@@ -3822,17 +3952,26 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="33">
         <v>3.2</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="C33" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="35">
+        <v>45188</v>
+      </c>
+      <c r="F33" s="35">
+        <v>45195</v>
+      </c>
       <c r="G33" s="36">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="H33" s="37"/>
       <c r="I33" s="42"/>
@@ -3906,18 +4045,26 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="C34" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="35">
+        <v>45188</v>
+      </c>
+      <c r="F34" s="35">
+        <v>45202</v>
+      </c>
       <c r="G34" s="36">
-        <f t="shared" ref="G34:G36" si="4">DAYS360(E34,F34)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="H34" s="37"/>
       <c r="I34" s="42"/>
@@ -3991,18 +4138,26 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="C35" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="35">
+        <v>45188</v>
+      </c>
+      <c r="F35" s="35">
+        <v>45202</v>
+      </c>
       <c r="G35" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="I35" s="42"/>
       <c r="J35" s="43"/>
@@ -4075,7 +4230,7 @@
       <c r="BY35" s="38"/>
       <c r="BZ35" s="38"/>
     </row>
-    <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="33">
         <v>3.3</v>
@@ -4085,7 +4240,7 @@
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H36" s="37"/>
@@ -4160,7 +4315,7 @@
       <c r="BY36" s="38"/>
       <c r="BZ36" s="38"/>
     </row>
-    <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="33" t="s">
         <v>19</v>
@@ -4170,6 +4325,7 @@
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H37" s="37"/>
@@ -4246,26 +4402,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="X8:AL8"/>
-    <mergeCell ref="AM8:BA8"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="AR9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="BB8:BZ8"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="N9:R9"/>
@@ -4282,6 +4418,26 @@
     <mergeCell ref="BQ9:BU9"/>
     <mergeCell ref="BV9:BZ9"/>
     <mergeCell ref="S9:W9"/>
+    <mergeCell ref="AM8:BA8"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="AR9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="X8:AL8"/>
   </mergeCells>
   <conditionalFormatting sqref="H19:H37 H11:H17">
     <cfRule type="colorScale" priority="3">
@@ -4307,21 +4463,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -4550,32 +4691,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4592,4 +4723,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>